--- a/shifts_arranger_only_day_shade.xlsx
+++ b/shifts_arranger_only_day_shade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eyal\Desktop\smart-shifts-system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eyal/Desktop/smart-shifts-organizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F902FE53-10E7-48D4-A02C-7F6B9FBAC88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62781439-8B6C-1149-809D-9FC30504E2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="משמרות" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="60">
   <si>
     <t>אייל</t>
   </si>
@@ -133,95 +133,119 @@
     <t>כפיר</t>
   </si>
   <si>
-    <t>6.4 Day Shift</t>
-  </si>
-  <si>
-    <t>6.4 Night Shift</t>
-  </si>
-  <si>
-    <t>7.4 Day Shift</t>
-  </si>
-  <si>
-    <t>7.4 Night Shift</t>
-  </si>
-  <si>
-    <t>8.4 Day Shift</t>
-  </si>
-  <si>
-    <t>8.4 Night Shift</t>
-  </si>
-  <si>
-    <t>9.4 Day Shift</t>
-  </si>
-  <si>
-    <t>9.4 Night Shift</t>
-  </si>
-  <si>
-    <t>10.4 Day Shift</t>
-  </si>
-  <si>
-    <t>10.4 Night Shift</t>
-  </si>
-  <si>
-    <t>11.4 Day Shift</t>
-  </si>
-  <si>
-    <t>11.4 Night Shift</t>
-  </si>
-  <si>
-    <t>12.4 Day Shift</t>
-  </si>
-  <si>
-    <t>12.4 Night Shift</t>
-  </si>
-  <si>
-    <t>13.4 Day Shift</t>
-  </si>
-  <si>
-    <t>13.4 Night Shift</t>
-  </si>
-  <si>
-    <t>14.4 Day Shift</t>
-  </si>
-  <si>
-    <t>14.4 Night Shift</t>
-  </si>
-  <si>
-    <t>15.4 Day Shift</t>
-  </si>
-  <si>
-    <t>15.4 Night Shift</t>
-  </si>
-  <si>
-    <t>16.4 Day Shift</t>
-  </si>
-  <si>
-    <t>16.4 Night Shift</t>
-  </si>
-  <si>
-    <t>17.4 Day Shift</t>
-  </si>
-  <si>
-    <t>17.4 Night Shift</t>
-  </si>
-  <si>
-    <t>18.4 Day Shift</t>
-  </si>
-  <si>
-    <t>18.4 Night Shift</t>
-  </si>
-  <si>
-    <t>19.4 Day Shift</t>
-  </si>
-  <si>
-    <t>19.4 Night Shift</t>
+    <t>עינת</t>
+  </si>
+  <si>
+    <t>20.4 Day Shift</t>
+  </si>
+  <si>
+    <t>20.4 Night Shift</t>
+  </si>
+  <si>
+    <t>21.4 Day Shift</t>
+  </si>
+  <si>
+    <t>21.4 Night Shift</t>
+  </si>
+  <si>
+    <t>22.4 Day Shift</t>
+  </si>
+  <si>
+    <t>22.4 Night Shift</t>
+  </si>
+  <si>
+    <t>23.4 Day Shift</t>
+  </si>
+  <si>
+    <t>23.4 Night Shift</t>
+  </si>
+  <si>
+    <t>24.4 Day Shift</t>
+  </si>
+  <si>
+    <t>24.4 Night Shift</t>
+  </si>
+  <si>
+    <t>25.4 Day Shift</t>
+  </si>
+  <si>
+    <t>25.4 Night Shift</t>
+  </si>
+  <si>
+    <t>26.4 Day Shift</t>
+  </si>
+  <si>
+    <t>26.4 Night Shift</t>
+  </si>
+  <si>
+    <t>27.4 Day Shift</t>
+  </si>
+  <si>
+    <t>27.4 Night Shift</t>
+  </si>
+  <si>
+    <t>28.4 Day Shift</t>
+  </si>
+  <si>
+    <t>28.4 Night Shift</t>
+  </si>
+  <si>
+    <t>29.4 Day Shift</t>
+  </si>
+  <si>
+    <t>29.4 Night Shift</t>
+  </si>
+  <si>
+    <t>30.4 Day Shift</t>
+  </si>
+  <si>
+    <t>30.4 Night Shift</t>
+  </si>
+  <si>
+    <t>1.5 Day Shift</t>
+  </si>
+  <si>
+    <t>1.5 Night Shift</t>
+  </si>
+  <si>
+    <t>2.5 Day Shift</t>
+  </si>
+  <si>
+    <t>2.5 Night Shift</t>
+  </si>
+  <si>
+    <t>3.5 Day Shift</t>
+  </si>
+  <si>
+    <t>3.5 Night Shift</t>
+  </si>
+  <si>
+    <t>תובל</t>
+  </si>
+  <si>
+    <t>מעוז</t>
+  </si>
+  <si>
+    <t>אליה</t>
+  </si>
+  <si>
+    <t>שם</t>
+  </si>
+  <si>
+    <t>כמות משמרות</t>
+  </si>
+  <si>
+    <t>כוננים ראשיים</t>
+  </si>
+  <si>
+    <t>כונני צל</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,8 +284,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +343,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -333,33 +414,379 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -383,6 +810,38 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DF335EC-FA63-9E48-84DD-B74B4465986E}" name="Table1" displayName="Table1" ref="G12:H19" totalsRowShown="0" headerRowDxfId="0" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="G12:H19" xr:uid="{7DF335EC-FA63-9E48-84DD-B74B4465986E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G13:H27">
+    <sortCondition descending="1" ref="G12:G27"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3E159630-971C-734C-9B0E-0451B2A84AC8}" name="כמות משמרות" dataDxfId="9">
+      <calculatedColumnFormula>COUNTIF($B$3:$H$9,H13)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{14A84CC7-2BD4-2D41-93CB-C108F669AAC8}" name="שם" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A8BBDE37-AD6A-F740-863E-98B1F0EB6C83}" name="Table13" displayName="Table13" ref="D12:E20" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="D12:E20" xr:uid="{A8BBDE37-AD6A-F740-863E-98B1F0EB6C83}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:E27">
+    <sortCondition descending="1" ref="D12:D27"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C4946E0D-2DDE-8B4D-A1AD-57C33FEF723C}" name="כמות משמרות" dataDxfId="4">
+      <calculatedColumnFormula>COUNTIF($B$3:$H$9,E13)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{8AC4869C-2556-D449-9483-E7BCBDA83B66}" name="שם" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -648,180 +1107,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="10" t="str">
         <f>A63</f>
-        <v>6.4</v>
-      </c>
-      <c r="C2" s="5" t="str">
+        <v>20.4</v>
+      </c>
+      <c r="C2" s="10" t="str">
         <f>A65</f>
-        <v>7.4</v>
-      </c>
-      <c r="D2" s="5" t="str">
+        <v>21.4</v>
+      </c>
+      <c r="D2" s="10" t="str">
         <f>A67</f>
-        <v>8.4</v>
-      </c>
-      <c r="E2" s="5" t="str">
+        <v>22.4</v>
+      </c>
+      <c r="E2" s="10" t="str">
         <f>A69</f>
-        <v>9.4</v>
-      </c>
-      <c r="F2" s="5" t="str">
+        <v>23.4</v>
+      </c>
+      <c r="F2" s="10" t="str">
         <f>A71</f>
-        <v>10.4</v>
-      </c>
-      <c r="G2" s="5" t="str">
+        <v>24.4</v>
+      </c>
+      <c r="G2" s="10" t="str">
         <f>A73</f>
-        <v>11.4</v>
-      </c>
-      <c r="H2" s="5" t="str">
+        <v>25.4</v>
+      </c>
+      <c r="H2" s="10" t="str">
         <f>A75</f>
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="29" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="29" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8" t="s">
+      <c r="B4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="29" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
-      <c r="B6" s="5" t="str">
+      <c r="B6" s="10" t="str">
         <f>A77</f>
-        <v>13.4</v>
-      </c>
-      <c r="C6" s="5" t="str">
+        <v>27.4</v>
+      </c>
+      <c r="C6" s="10" t="str">
         <f>A79</f>
-        <v>14.4</v>
-      </c>
-      <c r="D6" s="5" t="str">
+        <v>28.4</v>
+      </c>
+      <c r="D6" s="10" t="str">
         <f>A81</f>
-        <v>15.4</v>
-      </c>
-      <c r="E6" s="5" t="str">
+        <v>29.4</v>
+      </c>
+      <c r="E6" s="10" t="str">
         <f>A83</f>
-        <v>16.4</v>
-      </c>
-      <c r="F6" s="5" t="str">
+        <v>30.4</v>
+      </c>
+      <c r="F6" s="10" t="str">
         <f>A85</f>
-        <v>17.4</v>
-      </c>
-      <c r="G6" s="5" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="10" t="str">
         <f>A87</f>
-        <v>18.4</v>
-      </c>
-      <c r="H6" s="5" t="str">
+        <v>2.5</v>
+      </c>
+      <c r="H6" s="10" t="str">
         <f>A89</f>
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="29" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="29" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8" t="s">
+      <c r="B8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="29" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="str" cm="1">
+      <c r="B9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D11" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="G11" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D13" s="17">
+        <f>COUNTIF($B$3:$H$9,E13)</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="6">
+        <f>COUNTIF($B$3:$H$9,H13)</f>
+        <v>4</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D14" s="17">
+        <f>COUNTIF($B$3:$H$9,E14)</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="6">
+        <f>COUNTIF($B$3:$H$9,H14)</f>
+        <v>4</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D15" s="17">
+        <f>COUNTIF($B$3:$H$9,E15)</f>
+        <v>2</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="6">
+        <f>COUNTIF($B$3:$H$9,H15)</f>
+        <v>4</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D16" s="17">
+        <f>COUNTIF($B$3:$H$9,E16)</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="6">
+        <f>COUNTIF($B$3:$H$9,H16)</f>
+        <v>4</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D17" s="17">
+        <f>COUNTIF($B$3:$H$9,E17)</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="6">
+        <f>COUNTIF($B$3:$H$9,H17)</f>
+        <v>4</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D18" s="17">
+        <f>COUNTIF($B$3:$H$9,E18)</f>
+        <v>2</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="6">
+        <f>COUNTIF($B$3:$H$9,H18)</f>
+        <v>3</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D19" s="17">
+        <f>COUNTIF($B$3:$H$9,E19)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="6">
+        <f>COUNTIF($B$3:$H$9,H19)</f>
+        <v>3</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D20" s="17">
+        <f>COUNTIF($B$3:$H$9,E20)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="str" cm="1">
         <f t="array" ref="A63:C63">_xlfn.TEXTSPLIT('טבלת זמינות'!A2, " ")</f>
-        <v>6.4</v>
+        <v>20.4</v>
       </c>
       <c r="B63" t="str">
         <v>Day</v>
@@ -830,10 +1521,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="str" cm="1">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="str" cm="1">
         <f t="array" ref="A64:C64">_xlfn.TEXTSPLIT('טבלת זמינות'!A3, " ")</f>
-        <v>6.4</v>
+        <v>20.4</v>
       </c>
       <c r="B64" t="str">
         <v>Night</v>
@@ -842,10 +1533,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="str" cm="1">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="str" cm="1">
         <f t="array" ref="A65:C65">_xlfn.TEXTSPLIT('טבלת זמינות'!A4, " ")</f>
-        <v>7.4</v>
+        <v>21.4</v>
       </c>
       <c r="B65" t="str">
         <v>Day</v>
@@ -854,10 +1545,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="str" cm="1">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="str" cm="1">
         <f t="array" ref="A66:C66">_xlfn.TEXTSPLIT('טבלת זמינות'!A5, " ")</f>
-        <v>7.4</v>
+        <v>21.4</v>
       </c>
       <c r="B66" t="str">
         <v>Night</v>
@@ -866,10 +1557,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="str" cm="1">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="str" cm="1">
         <f t="array" ref="A67:C67">_xlfn.TEXTSPLIT('טבלת זמינות'!A6, " ")</f>
-        <v>8.4</v>
+        <v>22.4</v>
       </c>
       <c r="B67" t="str">
         <v>Day</v>
@@ -878,10 +1569,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="str" cm="1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="str" cm="1">
         <f t="array" ref="A68:C68">_xlfn.TEXTSPLIT('טבלת זמינות'!A7, " ")</f>
-        <v>8.4</v>
+        <v>22.4</v>
       </c>
       <c r="B68" t="str">
         <v>Night</v>
@@ -890,10 +1581,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="str" cm="1">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="str" cm="1">
         <f t="array" ref="A69:C69">_xlfn.TEXTSPLIT('טבלת זמינות'!A8, " ")</f>
-        <v>9.4</v>
+        <v>23.4</v>
       </c>
       <c r="B69" t="str">
         <v>Day</v>
@@ -902,10 +1593,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="str" cm="1">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="str" cm="1">
         <f t="array" ref="A70:C70">_xlfn.TEXTSPLIT('טבלת זמינות'!A9, " ")</f>
-        <v>9.4</v>
+        <v>23.4</v>
       </c>
       <c r="B70" t="str">
         <v>Night</v>
@@ -914,10 +1605,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="str" cm="1">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="str" cm="1">
         <f t="array" ref="A71:C71">_xlfn.TEXTSPLIT('טבלת זמינות'!A10, " ")</f>
-        <v>10.4</v>
+        <v>24.4</v>
       </c>
       <c r="B71" t="str">
         <v>Day</v>
@@ -926,10 +1617,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="str" cm="1">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="str" cm="1">
         <f t="array" ref="A72:C72">_xlfn.TEXTSPLIT('טבלת זמינות'!A11, " ")</f>
-        <v>10.4</v>
+        <v>24.4</v>
       </c>
       <c r="B72" t="str">
         <v>Night</v>
@@ -938,10 +1629,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="str" cm="1">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="str" cm="1">
         <f t="array" ref="A73:C73">_xlfn.TEXTSPLIT('טבלת זמינות'!A12, " ")</f>
-        <v>11.4</v>
+        <v>25.4</v>
       </c>
       <c r="B73" t="str">
         <v>Day</v>
@@ -950,10 +1641,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="str" cm="1">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="str" cm="1">
         <f t="array" ref="A74:C74">_xlfn.TEXTSPLIT('טבלת זמינות'!A13, " ")</f>
-        <v>11.4</v>
+        <v>25.4</v>
       </c>
       <c r="B74" t="str">
         <v>Night</v>
@@ -962,10 +1653,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="str" cm="1">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="str" cm="1">
         <f t="array" ref="A75:C75">_xlfn.TEXTSPLIT('טבלת זמינות'!A14, " ")</f>
-        <v>12.4</v>
+        <v>26.4</v>
       </c>
       <c r="B75" t="str">
         <v>Day</v>
@@ -974,10 +1665,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="str" cm="1">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="str" cm="1">
         <f t="array" ref="A76:C76">_xlfn.TEXTSPLIT('טבלת זמינות'!A15, " ")</f>
-        <v>12.4</v>
+        <v>26.4</v>
       </c>
       <c r="B76" t="str">
         <v>Night</v>
@@ -986,10 +1677,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="str" cm="1">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="str" cm="1">
         <f t="array" ref="A77:C77">_xlfn.TEXTSPLIT('טבלת זמינות'!A16, " ")</f>
-        <v>13.4</v>
+        <v>27.4</v>
       </c>
       <c r="B77" t="str">
         <v>Day</v>
@@ -998,10 +1689,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="str" cm="1">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="str" cm="1">
         <f t="array" ref="A78:C78">_xlfn.TEXTSPLIT('טבלת זמינות'!A17, " ")</f>
-        <v>13.4</v>
+        <v>27.4</v>
       </c>
       <c r="B78" t="str">
         <v>Night</v>
@@ -1010,10 +1701,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="str" cm="1">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="str" cm="1">
         <f t="array" ref="A79:C79">_xlfn.TEXTSPLIT('טבלת זמינות'!A18, " ")</f>
-        <v>14.4</v>
+        <v>28.4</v>
       </c>
       <c r="B79" t="str">
         <v>Day</v>
@@ -1022,10 +1713,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="str" cm="1">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="str" cm="1">
         <f t="array" ref="A80:C80">_xlfn.TEXTSPLIT('טבלת זמינות'!A19, " ")</f>
-        <v>14.4</v>
+        <v>28.4</v>
       </c>
       <c r="B80" t="str">
         <v>Night</v>
@@ -1034,10 +1725,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="str" cm="1">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="str" cm="1">
         <f t="array" ref="A81:C81">_xlfn.TEXTSPLIT('טבלת זמינות'!A20, " ")</f>
-        <v>15.4</v>
+        <v>29.4</v>
       </c>
       <c r="B81" t="str">
         <v>Day</v>
@@ -1046,10 +1737,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="str" cm="1">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="str" cm="1">
         <f t="array" ref="A82:C82">_xlfn.TEXTSPLIT('טבלת זמינות'!A21, " ")</f>
-        <v>15.4</v>
+        <v>29.4</v>
       </c>
       <c r="B82" t="str">
         <v>Night</v>
@@ -1058,10 +1749,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="str" cm="1">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="str" cm="1">
         <f t="array" ref="A83:C83">_xlfn.TEXTSPLIT('טבלת זמינות'!A22, " ")</f>
-        <v>16.4</v>
+        <v>30.4</v>
       </c>
       <c r="B83" t="str">
         <v>Day</v>
@@ -1070,10 +1761,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="str" cm="1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="str" cm="1">
         <f t="array" ref="A84:C84">_xlfn.TEXTSPLIT('טבלת זמינות'!A23, " ")</f>
-        <v>16.4</v>
+        <v>30.4</v>
       </c>
       <c r="B84" t="str">
         <v>Night</v>
@@ -1082,10 +1773,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="str" cm="1">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="str" cm="1">
         <f t="array" ref="A85:C85">_xlfn.TEXTSPLIT('טבלת זמינות'!A24, " ")</f>
-        <v>17.4</v>
+        <v>1.5</v>
       </c>
       <c r="B85" t="str">
         <v>Day</v>
@@ -1094,10 +1785,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="str" cm="1">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="str" cm="1">
         <f t="array" ref="A86:C86">_xlfn.TEXTSPLIT('טבלת זמינות'!A25, " ")</f>
-        <v>17.4</v>
+        <v>1.5</v>
       </c>
       <c r="B86" t="str">
         <v>Night</v>
@@ -1106,10 +1797,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="str" cm="1">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="str" cm="1">
         <f t="array" ref="A87:C87">_xlfn.TEXTSPLIT('טבלת זמינות'!A26, " ")</f>
-        <v>18.4</v>
+        <v>2.5</v>
       </c>
       <c r="B87" t="str">
         <v>Day</v>
@@ -1118,10 +1809,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="str" cm="1">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="str" cm="1">
         <f t="array" ref="A88:C88">_xlfn.TEXTSPLIT('טבלת זמינות'!A27, " ")</f>
-        <v>18.4</v>
+        <v>2.5</v>
       </c>
       <c r="B88" t="str">
         <v>Night</v>
@@ -1130,10 +1821,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="str" cm="1">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="str" cm="1">
         <f t="array" ref="A89:C89">_xlfn.TEXTSPLIT('טבלת זמינות'!A28, " ")</f>
-        <v>19.4</v>
+        <v>3.5</v>
       </c>
       <c r="B89" t="str">
         <v>Day</v>
@@ -1142,10 +1833,10 @@
         <v>Shift</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="str" cm="1">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="str" cm="1">
         <f t="array" ref="A90:C90">_xlfn.TEXTSPLIT('טבלת זמינות'!A29, " ")</f>
-        <v>19.4</v>
+        <v>3.5</v>
       </c>
       <c r="B90" t="str">
         <v>Night</v>
@@ -1155,8 +1846,16 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="D11:E11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="28">
@@ -1338,1012 +2037,1097 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703A9C9D-E287-4DB6-89F4-25B27FC47FFF}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I2" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
+      <c r="P2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
       <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="M5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
         <v>22</v>
       </c>
-      <c r="M8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
       </c>
       <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="L9" t="s">
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
         <v>22</v>
       </c>
-      <c r="M9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
       </c>
-      <c r="K10" t="s">
-        <v>1</v>
-      </c>
       <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
         <v>22</v>
       </c>
-      <c r="M10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>2</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" t="s">
-        <v>1</v>
-      </c>
       <c r="L11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
+      <c r="O11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="L12" t="s">
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
         <v>22</v>
       </c>
-      <c r="M12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
       <c r="I13" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="L13" t="s">
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
         <v>22</v>
       </c>
-      <c r="M13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
+      <c r="N14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
+      <c r="E16" t="s">
+        <v>21</v>
       </c>
       <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
         <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s">
-        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
         <v>19</v>
       </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
       <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s">
         <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
-        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
       </c>
-      <c r="K17" t="s">
-        <v>1</v>
+      <c r="L17" t="s">
+        <v>3</v>
       </c>
       <c r="M17" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
+      <c r="P17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
         <v>23</v>
-      </c>
-      <c r="H18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" t="s">
-        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="M18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
         <v>23</v>
-      </c>
-      <c r="H19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" t="s">
-        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
       </c>
-      <c r="K19" t="s">
-        <v>1</v>
+      <c r="L19" t="s">
+        <v>3</v>
       </c>
       <c r="M19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="P19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
         <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" t="s">
-        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="M20" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="P20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
         <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" t="s">
-        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
       </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
       <c r="L21" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="M21" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="P21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
         <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" t="s">
-        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>17</v>
       </c>
-      <c r="L22" t="s">
-        <v>22</v>
+      <c r="K22" t="s">
+        <v>20</v>
       </c>
       <c r="M22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" t="s">
         <v>5</v>
       </c>
-      <c r="N22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>45</v>
+      <c r="P22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
         <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" t="s">
-        <v>2</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
       </c>
-      <c r="L23" t="s">
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
         <v>22</v>
       </c>
-      <c r="M23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="I24" t="s">
         <v>23</v>
-      </c>
-      <c r="H24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" t="s">
-        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M24" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
         <v>23</v>
-      </c>
-      <c r="H25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" t="s">
-        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
       </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
       <c r="L25" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="M25" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>48</v>
+      <c r="P25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="M26" t="s">
         <v>18</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" t="s">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" t="s">
-        <v>5</v>
       </c>
       <c r="N26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>49</v>
+      <c r="P26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" t="s">
         <v>3</v>
       </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="M27" t="s">
         <v>18</v>
-      </c>
-      <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" t="s">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" t="s">
-        <v>5</v>
       </c>
       <c r="N27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>50</v>
+      <c r="P27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
         <v>3</v>
       </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="M28" t="s">
         <v>18</v>
-      </c>
-      <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" t="s">
-        <v>22</v>
       </c>
       <c r="N28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>51</v>
+      <c r="P28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" t="s">
         <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" t="s">
-        <v>2</v>
       </c>
       <c r="J29" t="s">
         <v>17</v>
       </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
       <c r="L29" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="M29" t="s">
+        <v>18</v>
       </c>
       <c r="N29" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
   </sheetData>
